--- a/2.1. Registro y actualizacion de articulos/campos_unibell_artículo.xlsx
+++ b/2.1. Registro y actualizacion de articulos/campos_unibell_artículo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRAINING1\Desktop\EVOL - FIELDS\Intergración WMS\2.1. Registro y actualizacion de articulos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A1A079-E598-4707-90A5-AA85FC1D73AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23065039-0F6C-4EE0-B3B8-7AA89797B832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C9569CFA-CC0E-4510-B81D-A697A083C165}"/>
   </bookViews>
@@ -1038,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB49CB3-079C-437B-AE71-A964E488500E}">
   <dimension ref="B2:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
